--- a/apps/es/resources/screen/ES006.xlsx
+++ b/apps/es/resources/screen/ES006.xlsx
@@ -1057,7 +1057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T128"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>es.views.es006_views.ES006</t>
+          <t>es.views.es006.ES006</t>
         </is>
       </c>
       <c r="D10" s="8" t="n"/>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>20250521145400</v>
+        <v>20250819115100</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
@@ -1447,6 +1447,7 @@
       <c r="I19" s="11" t="n"/>
     </row>
     <row r="20">
+      <c r="A20" s="6" t="n"/>
       <c r="C20" s="11" t="inlineStr">
         <is>
           <t>cashAdvRcs</t>
@@ -1468,6 +1469,7 @@
       <c r="I20" s="11" t="n"/>
     </row>
     <row r="21">
+      <c r="A21" s="6" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
           <t>dtlRc</t>
@@ -1489,6 +1491,7 @@
       <c r="I21" s="11" t="n"/>
     </row>
     <row r="22">
+      <c r="A22" s="6" t="n"/>
       <c r="C22" s="11" t="inlineStr">
         <is>
           <t>priorBalanceRcs</t>
@@ -1510,6 +1513,7 @@
       <c r="I22" s="11" t="n"/>
     </row>
     <row r="23">
+      <c r="A23" s="6" t="n"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
           <t>payeeRcs</t>
@@ -1531,6 +1535,7 @@
       <c r="I23" s="11" t="n"/>
     </row>
     <row r="24">
+      <c r="A24" s="6" t="n"/>
       <c r="C24" s="11" t="inlineStr">
         <is>
           <t>paymentMethodRcs</t>
@@ -1556,6 +1561,7 @@
       <c r="I24" s="11" t="n"/>
     </row>
     <row r="25">
+      <c r="A25" s="6" t="n"/>
       <c r="C25" s="11" t="inlineStr">
         <is>
           <t>ccyRcs</t>
@@ -1581,6 +1587,7 @@
       <c r="I25" s="11" t="n"/>
     </row>
     <row r="26">
+      <c r="A26" s="6" t="n"/>
       <c r="C26" s="11" t="inlineStr">
         <is>
           <t>activityRcs</t>
@@ -1819,6 +1826,7 @@
       <c r="T32" s="11" t="n"/>
     </row>
     <row r="33">
+      <c r="B33" s="1" t="n"/>
       <c r="C33" s="11" t="inlineStr">
         <is>
           <t>lineFg</t>
@@ -1851,6 +1859,7 @@
       <c r="T33" s="11" t="n"/>
     </row>
     <row r="34">
+      <c r="B34" s="1" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
           <t>toolbar1</t>
@@ -1883,6 +1892,7 @@
       <c r="T34" s="11" t="n"/>
     </row>
     <row r="35">
+      <c r="B35" s="1" t="n"/>
       <c r="C35" s="11" t="inlineStr">
         <is>
           <t>listFg</t>
@@ -1904,7 +1914,11 @@
         </is>
       </c>
       <c r="G35" s="11" t="n"/>
-      <c r="H35" s="11" t="n"/>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="I35" s="11" t="n"/>
       <c r="J35" s="11" t="inlineStr">
         <is>
@@ -1929,6 +1943,7 @@
       <c r="T35" s="11" t="n"/>
     </row>
     <row r="36">
+      <c r="B36" s="1" t="n"/>
       <c r="C36" s="11" t="inlineStr">
         <is>
           <t>pdfViewer</t>
@@ -1942,7 +1957,11 @@
       <c r="E36" s="11" t="n"/>
       <c r="F36" s="11" t="n"/>
       <c r="G36" s="11" t="n"/>
-      <c r="H36" s="11" t="n"/>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="I36" s="11" t="n"/>
       <c r="J36" s="11" t="n"/>
       <c r="K36" s="11" t="n"/>
@@ -1961,6 +1980,7 @@
       <c r="T36" s="11" t="n"/>
     </row>
     <row r="37">
+      <c r="B37" s="1" t="n"/>
       <c r="C37" s="11" t="inlineStr">
         <is>
           <t>dtlFg</t>
@@ -1997,6 +2017,7 @@
       <c r="T37" s="11" t="n"/>
     </row>
     <row r="38">
+      <c r="B38" s="1" t="n"/>
       <c r="C38" s="11" t="inlineStr">
         <is>
           <t>uploadFg</t>
@@ -2029,6 +2050,7 @@
       <c r="T38" s="11" t="n"/>
     </row>
     <row r="39">
+      <c r="B39" s="1" t="n"/>
       <c r="C39" s="11" t="inlineStr">
         <is>
           <t>priorBalanceExpenseFg</t>
@@ -2069,6 +2091,7 @@
       <c r="T39" s="11" t="n"/>
     </row>
     <row r="40">
+      <c r="B40" s="1" t="n"/>
       <c r="C40" s="11" t="inlineStr">
         <is>
           <t>toolbar2</t>
@@ -2101,6 +2124,7 @@
       <c r="T40" s="11" t="n"/>
     </row>
     <row r="41">
+      <c r="B41" s="1" t="n"/>
       <c r="C41" s="11" t="inlineStr">
         <is>
           <t>activityFg</t>
@@ -2317,6 +2341,7 @@
       <c r="P47" s="11" t="n"/>
     </row>
     <row r="48">
+      <c r="B48" s="1" t="n"/>
       <c r="C48" s="11" t="n"/>
       <c r="D48" s="11" t="inlineStr">
         <is>
@@ -2345,6 +2370,7 @@
       <c r="P48" s="11" t="n"/>
     </row>
     <row r="49">
+      <c r="B49" s="1" t="n"/>
       <c r="C49" s="11" t="n"/>
       <c r="D49" s="11" t="inlineStr">
         <is>
@@ -2381,6 +2407,7 @@
       <c r="P49" s="11" t="n"/>
     </row>
     <row r="50">
+      <c r="B50" s="1" t="n"/>
       <c r="C50" s="11" t="n"/>
       <c r="D50" s="11" t="inlineStr">
         <is>
@@ -2409,6 +2436,7 @@
       <c r="P50" s="11" t="n"/>
     </row>
     <row r="51">
+      <c r="B51" s="1" t="n"/>
       <c r="C51" s="11" t="n"/>
       <c r="D51" s="11" t="inlineStr">
         <is>
@@ -2441,6 +2469,7 @@
       <c r="P51" s="11" t="n"/>
     </row>
     <row r="52">
+      <c r="B52" s="1" t="n"/>
       <c r="C52" s="11" t="n"/>
       <c r="D52" s="11" t="inlineStr">
         <is>
@@ -2473,6 +2502,7 @@
       <c r="P52" s="11" t="n"/>
     </row>
     <row r="53">
+      <c r="B53" s="1" t="n"/>
       <c r="C53" s="11" t="n"/>
       <c r="D53" s="11" t="inlineStr">
         <is>
@@ -2505,6 +2535,7 @@
       <c r="P53" s="11" t="n"/>
     </row>
     <row r="54">
+      <c r="B54" s="1" t="n"/>
       <c r="C54" s="11" t="n"/>
       <c r="D54" s="11" t="inlineStr">
         <is>
@@ -2537,6 +2568,7 @@
       <c r="P54" s="11" t="n"/>
     </row>
     <row r="55">
+      <c r="B55" s="1" t="n"/>
       <c r="C55" s="11" t="n"/>
       <c r="D55" s="11" t="inlineStr">
         <is>
@@ -2569,6 +2601,7 @@
       <c r="P55" s="11" t="n"/>
     </row>
     <row r="56">
+      <c r="B56" s="1" t="n"/>
       <c r="C56" s="11" t="n"/>
       <c r="D56" s="11" t="inlineStr">
         <is>
@@ -2601,6 +2634,7 @@
       <c r="P56" s="11" t="n"/>
     </row>
     <row r="57">
+      <c r="B57" s="1" t="n"/>
       <c r="C57" s="11" t="n"/>
       <c r="D57" s="11" t="inlineStr">
         <is>
@@ -2629,6 +2663,7 @@
       <c r="P57" s="11" t="n"/>
     </row>
     <row r="58">
+      <c r="B58" s="1" t="n"/>
       <c r="C58" s="11" t="inlineStr">
         <is>
           <t>toolbar1</t>
@@ -2669,6 +2704,7 @@
       <c r="P58" s="11" t="n"/>
     </row>
     <row r="59">
+      <c r="B59" s="1" t="n"/>
       <c r="C59" s="11" t="inlineStr">
         <is>
           <t>listFg</t>
@@ -2701,6 +2737,7 @@
       <c r="P59" s="11" t="n"/>
     </row>
     <row r="60">
+      <c r="B60" s="1" t="n"/>
       <c r="C60" s="11" t="n"/>
       <c r="D60" s="11" t="n"/>
       <c r="E60" s="11" t="inlineStr">
@@ -2729,6 +2766,7 @@
       <c r="P60" s="11" t="n"/>
     </row>
     <row r="61">
+      <c r="B61" s="1" t="n"/>
       <c r="C61" s="11" t="n"/>
       <c r="D61" s="11" t="n"/>
       <c r="E61" s="11" t="inlineStr">
@@ -2757,6 +2795,7 @@
       <c r="P61" s="11" t="n"/>
     </row>
     <row r="62">
+      <c r="B62" s="1" t="n"/>
       <c r="C62" s="11" t="n"/>
       <c r="D62" s="11" t="n"/>
       <c r="E62" s="11" t="inlineStr">
@@ -2789,6 +2828,7 @@
       <c r="P62" s="11" t="n"/>
     </row>
     <row r="63">
+      <c r="B63" s="1" t="n"/>
       <c r="C63" s="11" t="n"/>
       <c r="D63" s="11" t="n"/>
       <c r="E63" s="11" t="inlineStr">
@@ -2817,6 +2857,7 @@
       <c r="P63" s="11" t="n"/>
     </row>
     <row r="64">
+      <c r="B64" s="1" t="n"/>
       <c r="C64" s="11" t="n"/>
       <c r="D64" s="11" t="n"/>
       <c r="E64" s="11" t="inlineStr">
@@ -2849,6 +2890,7 @@
       <c r="P64" s="11" t="n"/>
     </row>
     <row r="65">
+      <c r="B65" s="1" t="n"/>
       <c r="C65" s="11" t="n"/>
       <c r="D65" s="11" t="n"/>
       <c r="E65" s="11" t="inlineStr">
@@ -2877,6 +2919,7 @@
       <c r="P65" s="11" t="n"/>
     </row>
     <row r="66">
+      <c r="B66" s="1" t="n"/>
       <c r="C66" s="11" t="n"/>
       <c r="D66" s="11" t="n"/>
       <c r="E66" s="11" t="inlineStr">
@@ -2905,6 +2948,7 @@
       <c r="P66" s="11" t="n"/>
     </row>
     <row r="67">
+      <c r="B67" s="1" t="n"/>
       <c r="C67" s="11" t="n"/>
       <c r="D67" s="11" t="n"/>
       <c r="E67" s="11" t="inlineStr">
@@ -2937,6 +2981,7 @@
       <c r="P67" s="11" t="n"/>
     </row>
     <row r="68">
+      <c r="B68" s="1" t="n"/>
       <c r="C68" s="11" t="n"/>
       <c r="D68" s="11" t="n"/>
       <c r="E68" s="11" t="inlineStr">
@@ -2965,6 +3010,7 @@
       <c r="P68" s="11" t="n"/>
     </row>
     <row r="69">
+      <c r="B69" s="1" t="n"/>
       <c r="C69" s="11" t="n"/>
       <c r="D69" s="11" t="n"/>
       <c r="E69" s="11" t="inlineStr">
@@ -2993,6 +3039,7 @@
       <c r="P69" s="11" t="n"/>
     </row>
     <row r="70">
+      <c r="B70" s="1" t="n"/>
       <c r="C70" s="11" t="n"/>
       <c r="D70" s="11" t="n"/>
       <c r="E70" s="11" t="inlineStr">
@@ -3021,6 +3068,7 @@
       <c r="P70" s="11" t="n"/>
     </row>
     <row r="71">
+      <c r="B71" s="1" t="n"/>
       <c r="C71" s="11" t="n"/>
       <c r="D71" s="11" t="n"/>
       <c r="E71" s="11" t="inlineStr">
@@ -3049,6 +3097,7 @@
       <c r="P71" s="11" t="n"/>
     </row>
     <row r="72">
+      <c r="B72" s="1" t="n"/>
       <c r="C72" s="11" t="n"/>
       <c r="D72" s="11" t="n"/>
       <c r="E72" s="11" t="inlineStr">
@@ -3081,103 +3130,110 @@
       <c r="P72" s="11" t="n"/>
     </row>
     <row r="73">
-      <c r="C73" s="11" t="n"/>
-      <c r="D73" s="11" t="n"/>
-      <c r="E73" s="11" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="11" t="inlineStr">
+        <is>
+          <t>dtlFg</t>
+        </is>
+      </c>
+      <c r="D73" s="11" t="inlineStr">
+        <is>
+          <t>payeeOfficeField</t>
+        </is>
+      </c>
+      <c r="E73" s="11" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="F73" s="11" t="n"/>
       <c r="G73" s="11" t="n"/>
-      <c r="H73" s="11" t="n"/>
+      <c r="H73" s="11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="I73" s="11" t="n"/>
       <c r="J73" s="11" t="n"/>
       <c r="K73" s="11" t="inlineStr">
         <is>
-          <t>Plugin</t>
-        </is>
-      </c>
-      <c r="L73" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L73" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getOfficeRcs
+values: {"value": "id", "display": "name"}</t>
+        </is>
+      </c>
       <c r="M73" s="11" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="N73" s="11" t="inlineStr">
-        <is>
-          <t>openCashAdvDetail</t>
-        </is>
-      </c>
-      <c r="O73" s="11" t="n"/>
+          <t>office_id</t>
+        </is>
+      </c>
+      <c r="N73" s="11" t="n"/>
+      <c r="O73" s="11" t="inlineStr">
+        <is>
+          <t>width: 290px;</t>
+        </is>
+      </c>
       <c r="P73" s="11" t="n"/>
     </row>
     <row r="74">
-      <c r="C74" s="11" t="inlineStr">
-        <is>
-          <t>dtlFg</t>
-        </is>
-      </c>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="11" t="n"/>
       <c r="D74" s="11" t="inlineStr">
         <is>
-          <t>payeeOfficeField</t>
+          <t>snField</t>
         </is>
       </c>
       <c r="E74" s="11" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="F74" s="11" t="n"/>
       <c r="G74" s="11" t="n"/>
-      <c r="H74" s="11" t="inlineStr">
+      <c r="H74" s="11" t="n"/>
+      <c r="I74" s="11" t="n"/>
+      <c r="J74" s="11" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="I74" s="11" t="n"/>
-      <c r="J74" s="11" t="n"/>
       <c r="K74" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L74" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getOfficeRcs
-values: {"value": "id", "display": "name"}</t>
-        </is>
-      </c>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="L74" s="11" t="n"/>
       <c r="M74" s="11" t="inlineStr">
         <is>
-          <t>office_id</t>
+          <t>sn</t>
         </is>
       </c>
       <c r="N74" s="11" t="n"/>
-      <c r="O74" s="11" t="inlineStr">
-        <is>
-          <t>width: 290px;</t>
-        </is>
-      </c>
+      <c r="O74" s="11" t="n"/>
       <c r="P74" s="11" t="n"/>
     </row>
     <row r="75">
+      <c r="B75" s="1" t="n"/>
       <c r="C75" s="11" t="n"/>
       <c r="D75" s="11" t="inlineStr">
         <is>
-          <t>snField</t>
+          <t>stsField</t>
         </is>
       </c>
       <c r="E75" s="11" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="F75" s="11" t="n"/>
       <c r="G75" s="11" t="n"/>
       <c r="H75" s="11" t="n"/>
       <c r="I75" s="11" t="n"/>
-      <c r="J75" s="11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="J75" s="11" t="n"/>
       <c r="K75" s="11" t="inlineStr">
         <is>
           <t>Label</t>
@@ -3186,7 +3242,7 @@
       <c r="L75" s="11" t="n"/>
       <c r="M75" s="11" t="inlineStr">
         <is>
-          <t>sn</t>
+          <t>sts</t>
         </is>
       </c>
       <c r="N75" s="11" t="n"/>
@@ -3194,15 +3250,16 @@
       <c r="P75" s="11" t="n"/>
     </row>
     <row r="76">
+      <c r="B76" s="1" t="n"/>
       <c r="C76" s="11" t="n"/>
       <c r="D76" s="11" t="inlineStr">
         <is>
-          <t>stsField</t>
+          <t>claimerNmField</t>
         </is>
       </c>
       <c r="E76" s="11" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Claimer</t>
         </is>
       </c>
       <c r="F76" s="11" t="n"/>
@@ -3218,7 +3275,7 @@
       <c r="L76" s="11" t="n"/>
       <c r="M76" s="11" t="inlineStr">
         <is>
-          <t>sts</t>
+          <t>claimer.usr_nm</t>
         </is>
       </c>
       <c r="N76" s="11" t="n"/>
@@ -3226,31 +3283,40 @@
       <c r="P76" s="11" t="n"/>
     </row>
     <row r="77">
+      <c r="B77" s="1" t="n"/>
       <c r="C77" s="11" t="n"/>
       <c r="D77" s="11" t="inlineStr">
         <is>
-          <t>claimerNmField</t>
+          <t>claimDateField</t>
         </is>
       </c>
       <c r="E77" s="11" t="inlineStr">
         <is>
-          <t>Claimer</t>
+          <t>Claim Date</t>
         </is>
       </c>
       <c r="F77" s="11" t="n"/>
       <c r="G77" s="11" t="n"/>
       <c r="H77" s="11" t="n"/>
       <c r="I77" s="11" t="n"/>
-      <c r="J77" s="11" t="n"/>
+      <c r="J77" s="11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="K77" s="11" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="L77" s="11" t="n"/>
+      <c r="L77" s="11" t="inlineStr">
+        <is>
+          <t>format: yyyy-MM-dd HH:mm:ss</t>
+        </is>
+      </c>
       <c r="M77" s="11" t="inlineStr">
         <is>
-          <t>claimer.usr_nm</t>
+          <t>claim_dt</t>
         </is>
       </c>
       <c r="N77" s="11" t="n"/>
@@ -3258,64 +3324,67 @@
       <c r="P77" s="11" t="n"/>
     </row>
     <row r="78">
+      <c r="B78" s="1" t="n"/>
       <c r="C78" s="11" t="n"/>
       <c r="D78" s="11" t="inlineStr">
         <is>
-          <t>claimDateField</t>
+          <t>ccyField</t>
         </is>
       </c>
       <c r="E78" s="11" t="inlineStr">
         <is>
-          <t>Claim Date</t>
+          <t>CCY</t>
         </is>
       </c>
       <c r="F78" s="11" t="n"/>
       <c r="G78" s="11" t="n"/>
-      <c r="H78" s="11" t="n"/>
+      <c r="H78" s="11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="I78" s="11" t="n"/>
-      <c r="J78" s="11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="J78" s="11" t="n"/>
       <c r="K78" s="11" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>ComboBox</t>
         </is>
       </c>
       <c r="L78" s="11" t="inlineStr">
         <is>
-          <t>format: yyyy-MM-dd HH:mm:ss</t>
+          <t>recordset: ccyRcs
+values: {"value": "id", "display": "code"}</t>
         </is>
       </c>
       <c r="M78" s="11" t="inlineStr">
         <is>
-          <t>claim_dt</t>
+          <t>ccy_id</t>
         </is>
       </c>
       <c r="N78" s="11" t="n"/>
-      <c r="O78" s="11" t="n"/>
+      <c r="O78" s="11" t="inlineStr">
+        <is>
+          <t>width: 290px;</t>
+        </is>
+      </c>
       <c r="P78" s="11" t="n"/>
     </row>
     <row r="79">
+      <c r="B79" s="1" t="n"/>
       <c r="C79" s="11" t="n"/>
       <c r="D79" s="11" t="inlineStr">
         <is>
-          <t>ccyField</t>
+          <t>payeeIDField</t>
         </is>
       </c>
       <c r="E79" s="11" t="inlineStr">
         <is>
-          <t>CCY</t>
+          <t>Payee</t>
         </is>
       </c>
       <c r="F79" s="11" t="n"/>
       <c r="G79" s="11" t="n"/>
-      <c r="H79" s="11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="H79" s="11" t="n"/>
       <c r="I79" s="11" t="n"/>
       <c r="J79" s="11" t="n"/>
       <c r="K79" s="11" t="inlineStr">
@@ -3325,13 +3394,13 @@
       </c>
       <c r="L79" s="11" t="inlineStr">
         <is>
-          <t>recordset: ccyRcs
-values: {"value": "id", "display": "code"}</t>
+          <t>recordset: payeeRcs
+values: {"value": "id", "display": "payee"}</t>
         </is>
       </c>
       <c r="M79" s="11" t="inlineStr">
         <is>
-          <t>ccy_id</t>
+          <t>payee_id</t>
         </is>
       </c>
       <c r="N79" s="11" t="n"/>
@@ -3343,15 +3412,16 @@
       <c r="P79" s="11" t="n"/>
     </row>
     <row r="80">
+      <c r="B80" s="1" t="n"/>
       <c r="C80" s="11" t="n"/>
       <c r="D80" s="11" t="inlineStr">
         <is>
-          <t>payeeIDField</t>
+          <t>dscField</t>
         </is>
       </c>
       <c r="E80" s="11" t="inlineStr">
         <is>
-          <t>Payee</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F80" s="11" t="n"/>
@@ -3361,18 +3431,13 @@
       <c r="J80" s="11" t="n"/>
       <c r="K80" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L80" s="11" t="inlineStr">
-        <is>
-          <t>recordset: payeeRcs
-values: {"value": "id", "display": "payee"}</t>
-        </is>
-      </c>
+          <t>TextArea</t>
+        </is>
+      </c>
+      <c r="L80" s="11" t="n"/>
       <c r="M80" s="11" t="inlineStr">
         <is>
-          <t>payee_id</t>
+          <t>dsc</t>
         </is>
       </c>
       <c r="N80" s="11" t="n"/>
@@ -3384,15 +3449,16 @@
       <c r="P80" s="11" t="n"/>
     </row>
     <row r="81">
+      <c r="B81" s="1" t="n"/>
       <c r="C81" s="11" t="n"/>
       <c r="D81" s="11" t="inlineStr">
         <is>
-          <t>dscField</t>
+          <t>detailPoNoField</t>
         </is>
       </c>
       <c r="E81" s="11" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Purchase Order No. (Optional)</t>
         </is>
       </c>
       <c r="F81" s="11" t="n"/>
@@ -3402,13 +3468,13 @@
       <c r="J81" s="11" t="n"/>
       <c r="K81" s="11" t="inlineStr">
         <is>
-          <t>TextArea</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="L81" s="11" t="n"/>
       <c r="M81" s="11" t="inlineStr">
         <is>
-          <t>dsc</t>
+          <t>po_sn</t>
         </is>
       </c>
       <c r="N81" s="11" t="n"/>
@@ -3420,31 +3486,41 @@
       <c r="P81" s="11" t="n"/>
     </row>
     <row r="82">
+      <c r="B82" s="1" t="n"/>
       <c r="C82" s="11" t="n"/>
       <c r="D82" s="11" t="inlineStr">
         <is>
-          <t>detailPoNoField</t>
+          <t>approverField</t>
         </is>
       </c>
       <c r="E82" s="11" t="inlineStr">
         <is>
-          <t>Purchase Order No. (Optional)</t>
+          <t>Approver</t>
         </is>
       </c>
       <c r="F82" s="11" t="n"/>
       <c r="G82" s="11" t="n"/>
       <c r="H82" s="11" t="n"/>
       <c r="I82" s="11" t="n"/>
-      <c r="J82" s="11" t="n"/>
+      <c r="J82" s="11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="K82" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L82" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L82" s="11" t="inlineStr">
+        <is>
+          <t>dataUrl: getApproverRcs
+values: {"value": "id", "display": "approver"}</t>
+        </is>
+      </c>
       <c r="M82" s="11" t="inlineStr">
         <is>
-          <t>po_sn</t>
+          <t>approver_id</t>
         </is>
       </c>
       <c r="N82" s="11" t="n"/>
@@ -3456,60 +3532,49 @@
       <c r="P82" s="11" t="n"/>
     </row>
     <row r="83">
+      <c r="B83" s="1" t="n"/>
       <c r="C83" s="11" t="n"/>
       <c r="D83" s="11" t="inlineStr">
         <is>
-          <t>approverField</t>
+          <t>priorBalanceField</t>
         </is>
       </c>
       <c r="E83" s="11" t="inlineStr">
         <is>
-          <t>Approver</t>
+          <t>Prior Balance</t>
         </is>
       </c>
       <c r="F83" s="11" t="n"/>
       <c r="G83" s="11" t="n"/>
       <c r="H83" s="11" t="n"/>
       <c r="I83" s="11" t="n"/>
-      <c r="J83" s="11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="J83" s="11" t="n"/>
       <c r="K83" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L83" s="11" t="inlineStr">
-        <is>
-          <t>dataUrl: getApproverRcs
-values: {"value": "id", "display": "approver"}</t>
-        </is>
-      </c>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="L83" s="11" t="n"/>
       <c r="M83" s="11" t="inlineStr">
         <is>
-          <t>approver_id</t>
+          <t>balance_amt</t>
         </is>
       </c>
       <c r="N83" s="11" t="n"/>
-      <c r="O83" s="11" t="inlineStr">
-        <is>
-          <t>width: 290px;</t>
-        </is>
-      </c>
+      <c r="O83" s="11" t="n"/>
       <c r="P83" s="11" t="n"/>
     </row>
     <row r="84">
+      <c r="B84" s="1" t="n"/>
       <c r="C84" s="11" t="n"/>
       <c r="D84" s="11" t="inlineStr">
         <is>
-          <t>priorBalanceField</t>
+          <t>amountField</t>
         </is>
       </c>
       <c r="E84" s="11" t="inlineStr">
         <is>
-          <t>Prior Balance</t>
+          <t>Advance Amount</t>
         </is>
       </c>
       <c r="F84" s="11" t="n"/>
@@ -3519,29 +3584,34 @@
       <c r="J84" s="11" t="n"/>
       <c r="K84" s="11" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="L84" s="11" t="n"/>
       <c r="M84" s="11" t="inlineStr">
         <is>
-          <t>balance_amt</t>
+          <t>claim_amt</t>
         </is>
       </c>
       <c r="N84" s="11" t="n"/>
-      <c r="O84" s="11" t="n"/>
+      <c r="O84" s="11" t="inlineStr">
+        <is>
+          <t>width: 290px;</t>
+        </is>
+      </c>
       <c r="P84" s="11" t="n"/>
     </row>
     <row r="85">
+      <c r="B85" s="1" t="n"/>
       <c r="C85" s="11" t="n"/>
       <c r="D85" s="11" t="inlineStr">
         <is>
-          <t>amountField</t>
+          <t>trnTypeField</t>
         </is>
       </c>
       <c r="E85" s="11" t="inlineStr">
         <is>
-          <t>Advance Amount</t>
+          <t>Transaction Type</t>
         </is>
       </c>
       <c r="F85" s="11" t="n"/>
@@ -3551,13 +3621,18 @@
       <c r="J85" s="11" t="n"/>
       <c r="K85" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L85" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L85" s="11" t="inlineStr">
+        <is>
+          <t>recordset: paymentMethodRcs
+values: {"value": "id", "display": "tp"}</t>
+        </is>
+      </c>
       <c r="M85" s="11" t="inlineStr">
         <is>
-          <t>claim_amt</t>
+          <t>payment_tp_id</t>
         </is>
       </c>
       <c r="N85" s="11" t="n"/>
@@ -3569,15 +3644,16 @@
       <c r="P85" s="11" t="n"/>
     </row>
     <row r="86">
+      <c r="B86" s="1" t="n"/>
       <c r="C86" s="11" t="n"/>
       <c r="D86" s="11" t="inlineStr">
         <is>
-          <t>trnTypeField</t>
+          <t>trnNoField</t>
         </is>
       </c>
       <c r="E86" s="11" t="inlineStr">
         <is>
-          <t>Transaction Type</t>
+          <t>Transfer No.</t>
         </is>
       </c>
       <c r="F86" s="11" t="n"/>
@@ -3587,18 +3663,13 @@
       <c r="J86" s="11" t="n"/>
       <c r="K86" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L86" s="11" t="inlineStr">
-        <is>
-          <t>recordset: paymentMethodRcs
-values: {"value": "id", "display": "tp"}</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L86" s="11" t="n"/>
       <c r="M86" s="11" t="inlineStr">
         <is>
-          <t>payment_tp_id</t>
+          <t>payment_number</t>
         </is>
       </c>
       <c r="N86" s="11" t="n"/>
@@ -3610,15 +3681,16 @@
       <c r="P86" s="11" t="n"/>
     </row>
     <row r="87">
+      <c r="B87" s="1" t="n"/>
       <c r="C87" s="11" t="n"/>
       <c r="D87" s="11" t="inlineStr">
         <is>
-          <t>trnNoField</t>
+          <t>cancelRejectReasonField</t>
         </is>
       </c>
       <c r="E87" s="11" t="inlineStr">
         <is>
-          <t>Transfer No.</t>
+          <t>Cancel / Reject Reason</t>
         </is>
       </c>
       <c r="F87" s="11" t="n"/>
@@ -3634,7 +3706,7 @@
       <c r="L87" s="11" t="n"/>
       <c r="M87" s="11" t="inlineStr">
         <is>
-          <t>payment_number</t>
+          <t>action_rmk</t>
         </is>
       </c>
       <c r="N87" s="11" t="n"/>
@@ -3646,15 +3718,16 @@
       <c r="P87" s="11" t="n"/>
     </row>
     <row r="88">
+      <c r="B88" s="1" t="n"/>
       <c r="C88" s="11" t="n"/>
       <c r="D88" s="11" t="inlineStr">
         <is>
-          <t>cancelRejectReasonField</t>
+          <t>revertSettledPaymentReasonField</t>
         </is>
       </c>
       <c r="E88" s="11" t="inlineStr">
         <is>
-          <t>Cancel / Reject Reason</t>
+          <t>Revert Settled Payment Reason</t>
         </is>
       </c>
       <c r="F88" s="11" t="n"/>
@@ -3682,15 +3755,20 @@
       <c r="P88" s="11" t="n"/>
     </row>
     <row r="89">
-      <c r="C89" s="11" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="11" t="inlineStr">
+        <is>
+          <t>uploadFg</t>
+        </is>
+      </c>
       <c r="D89" s="11" t="inlineStr">
         <is>
-          <t>revertSettledPaymentReasonField</t>
+          <t>uploadFile</t>
         </is>
       </c>
       <c r="E89" s="11" t="inlineStr">
         <is>
-          <t>Revert Settled Payment Reason</t>
+          <t>Select a payment record file:</t>
         </is>
       </c>
       <c r="F89" s="11" t="n"/>
@@ -3700,37 +3778,30 @@
       <c r="J89" s="11" t="n"/>
       <c r="K89" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L89" s="11" t="n"/>
-      <c r="M89" s="11" t="inlineStr">
-        <is>
-          <t>action_rmk</t>
-        </is>
-      </c>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="L89" s="11" t="inlineStr">
+        <is>
+          <t>multiple:true</t>
+        </is>
+      </c>
+      <c r="M89" s="11" t="n"/>
       <c r="N89" s="11" t="n"/>
-      <c r="O89" s="11" t="inlineStr">
-        <is>
-          <t>width: 290px;</t>
-        </is>
-      </c>
+      <c r="O89" s="11" t="n"/>
       <c r="P89" s="11" t="n"/>
     </row>
     <row r="90">
+      <c r="B90" s="1" t="n"/>
       <c r="C90" s="11" t="inlineStr">
         <is>
-          <t>uploadFg</t>
-        </is>
-      </c>
-      <c r="D90" s="11" t="inlineStr">
-        <is>
-          <t>uploadFile</t>
-        </is>
-      </c>
+          <t>priorBalanceExpenseFg</t>
+        </is>
+      </c>
+      <c r="D90" s="11" t="n"/>
       <c r="E90" s="11" t="inlineStr">
         <is>
-          <t>Select a payment record file:</t>
+          <t>Expense SN</t>
         </is>
       </c>
       <c r="F90" s="11" t="n"/>
@@ -3740,29 +3811,26 @@
       <c r="J90" s="11" t="n"/>
       <c r="K90" s="11" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="L90" s="11" t="inlineStr">
-        <is>
-          <t>multiple:true</t>
-        </is>
-      </c>
-      <c r="M90" s="11" t="n"/>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="L90" s="11" t="n"/>
+      <c r="M90" s="11" t="inlineStr">
+        <is>
+          <t>expense.sn</t>
+        </is>
+      </c>
       <c r="N90" s="11" t="n"/>
       <c r="O90" s="11" t="n"/>
       <c r="P90" s="11" t="n"/>
     </row>
     <row r="91">
-      <c r="C91" s="11" t="inlineStr">
-        <is>
-          <t>priorBalanceExpenseFg</t>
-        </is>
-      </c>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="11" t="n"/>
       <c r="D91" s="11" t="n"/>
       <c r="E91" s="11" t="inlineStr">
         <is>
-          <t>Expense SN</t>
+          <t>Payee</t>
         </is>
       </c>
       <c r="F91" s="11" t="n"/>
@@ -3778,7 +3846,7 @@
       <c r="L91" s="11" t="n"/>
       <c r="M91" s="11" t="inlineStr">
         <is>
-          <t>expense.sn</t>
+          <t>expense.payee.payee</t>
         </is>
       </c>
       <c r="N91" s="11" t="n"/>
@@ -3786,11 +3854,12 @@
       <c r="P91" s="11" t="n"/>
     </row>
     <row r="92">
+      <c r="B92" s="1" t="n"/>
       <c r="C92" s="11" t="n"/>
       <c r="D92" s="11" t="n"/>
       <c r="E92" s="11" t="inlineStr">
         <is>
-          <t>Payee</t>
+          <t>Petty Expense</t>
         </is>
       </c>
       <c r="F92" s="11" t="n"/>
@@ -3806,7 +3875,7 @@
       <c r="L92" s="11" t="n"/>
       <c r="M92" s="11" t="inlineStr">
         <is>
-          <t>expense.payee.payee</t>
+          <t>is_petty_expense</t>
         </is>
       </c>
       <c r="N92" s="11" t="n"/>
@@ -3814,11 +3883,12 @@
       <c r="P92" s="11" t="n"/>
     </row>
     <row r="93">
+      <c r="B93" s="1" t="n"/>
       <c r="C93" s="11" t="n"/>
       <c r="D93" s="11" t="n"/>
       <c r="E93" s="11" t="inlineStr">
         <is>
-          <t>Petty Expense</t>
+          <t>CCY</t>
         </is>
       </c>
       <c r="F93" s="11" t="n"/>
@@ -3834,7 +3904,7 @@
       <c r="L93" s="11" t="n"/>
       <c r="M93" s="11" t="inlineStr">
         <is>
-          <t>is_petty_expense</t>
+          <t>expense.office.ccy.code</t>
         </is>
       </c>
       <c r="N93" s="11" t="n"/>
@@ -3842,11 +3912,12 @@
       <c r="P93" s="11" t="n"/>
     </row>
     <row r="94">
+      <c r="B94" s="1" t="n"/>
       <c r="C94" s="11" t="n"/>
       <c r="D94" s="11" t="n"/>
       <c r="E94" s="11" t="inlineStr">
         <is>
-          <t>CCY</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F94" s="11" t="n"/>
@@ -3862,7 +3933,7 @@
       <c r="L94" s="11" t="n"/>
       <c r="M94" s="11" t="inlineStr">
         <is>
-          <t>expense.office.ccy.code</t>
+          <t>claim_amt</t>
         </is>
       </c>
       <c r="N94" s="11" t="n"/>
@@ -3870,11 +3941,20 @@
       <c r="P94" s="11" t="n"/>
     </row>
     <row r="95">
-      <c r="C95" s="11" t="n"/>
-      <c r="D95" s="11" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="11" t="inlineStr">
+        <is>
+          <t>toolbar2</t>
+        </is>
+      </c>
+      <c r="D95" s="11" t="inlineStr">
+        <is>
+          <t>bttBack</t>
+        </is>
+      </c>
       <c r="E95" s="11" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="F95" s="11" t="n"/>
@@ -3884,33 +3964,34 @@
       <c r="J95" s="11" t="n"/>
       <c r="K95" s="11" t="inlineStr">
         <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="L95" s="11" t="n"/>
-      <c r="M95" s="11" t="inlineStr">
-        <is>
-          <t>claim_amt</t>
-        </is>
-      </c>
-      <c r="N95" s="11" t="n"/>
+          <t>IconAndText</t>
+        </is>
+      </c>
+      <c r="L95" s="11" t="inlineStr">
+        <is>
+          <t>icon:images/back_button.gif</t>
+        </is>
+      </c>
+      <c r="M95" s="11" t="n"/>
+      <c r="N95" s="11" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
       <c r="O95" s="11" t="n"/>
       <c r="P95" s="11" t="n"/>
     </row>
     <row r="96">
-      <c r="C96" s="11" t="inlineStr">
-        <is>
-          <t>toolbar2</t>
-        </is>
-      </c>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="11" t="n"/>
       <c r="D96" s="11" t="inlineStr">
         <is>
-          <t>bttBack</t>
+          <t>bttSubmit</t>
         </is>
       </c>
       <c r="E96" s="11" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Submit</t>
         </is>
       </c>
       <c r="F96" s="11" t="n"/>
@@ -3925,28 +4006,30 @@
       </c>
       <c r="L96" s="11" t="inlineStr">
         <is>
-          <t>icon:images/back_button.gif</t>
+          <t>icon: images/action_button.gif
+dialog: content: Are you sure to submit this cash advancement?</t>
         </is>
       </c>
       <c r="M96" s="11" t="n"/>
       <c r="N96" s="11" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>submit(dtlFg)</t>
         </is>
       </c>
       <c r="O96" s="11" t="n"/>
       <c r="P96" s="11" t="n"/>
     </row>
     <row r="97">
+      <c r="B97" s="1" t="n"/>
       <c r="C97" s="11" t="n"/>
       <c r="D97" s="11" t="inlineStr">
         <is>
-          <t>bttSubmit</t>
+          <t>bttCancel</t>
         </is>
       </c>
       <c r="E97" s="11" t="inlineStr">
         <is>
-          <t>Submit</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="F97" s="11" t="n"/>
@@ -3961,29 +4044,30 @@
       </c>
       <c r="L97" s="11" t="inlineStr">
         <is>
-          <t>icon: images/action_button.gif
-dialog: content: Are you sure to submit this cash advancement?</t>
+          <t>icon:images/cancel_button.gif
+dialog:content: Are you sure to cancel this cash payment?</t>
         </is>
       </c>
       <c r="M97" s="11" t="n"/>
       <c r="N97" s="11" t="inlineStr">
         <is>
-          <t>submit(dtlFg)</t>
+          <t>cancel(dtlFg)</t>
         </is>
       </c>
       <c r="O97" s="11" t="n"/>
       <c r="P97" s="11" t="n"/>
     </row>
     <row r="98">
+      <c r="B98" s="1" t="n"/>
       <c r="C98" s="11" t="n"/>
       <c r="D98" s="11" t="inlineStr">
         <is>
-          <t>bttCancel</t>
+          <t>bttApprove</t>
         </is>
       </c>
       <c r="E98" s="11" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Approve</t>
         </is>
       </c>
       <c r="F98" s="11" t="n"/>
@@ -3998,29 +4082,30 @@
       </c>
       <c r="L98" s="11" t="inlineStr">
         <is>
-          <t>icon:images/cancel_button.gif
-dialog:content: Are you sure to cancel this cash payment?</t>
+          <t>icon:images/commit_button.gif
+dialog:content: Are you sure to approve this cash payment?</t>
         </is>
       </c>
       <c r="M98" s="11" t="n"/>
       <c r="N98" s="11" t="inlineStr">
         <is>
-          <t>cancel(dtlFg)</t>
+          <t>approve(dtlFg)</t>
         </is>
       </c>
       <c r="O98" s="11" t="n"/>
       <c r="P98" s="11" t="n"/>
     </row>
     <row r="99">
+      <c r="B99" s="1" t="n"/>
       <c r="C99" s="11" t="n"/>
       <c r="D99" s="11" t="inlineStr">
         <is>
-          <t>bttApprove</t>
+          <t>bttReject</t>
         </is>
       </c>
       <c r="E99" s="11" t="inlineStr">
         <is>
-          <t>Approve</t>
+          <t>Reject</t>
         </is>
       </c>
       <c r="F99" s="11" t="n"/>
@@ -4035,29 +4120,30 @@
       </c>
       <c r="L99" s="11" t="inlineStr">
         <is>
-          <t>icon:images/commit_button.gif
-dialog:content: Are you sure to approve this cash payment?</t>
+          <t>icon: images/close_button_normal.gif
+dialog: content:Are you sure to reject this cash payment?</t>
         </is>
       </c>
       <c r="M99" s="11" t="n"/>
       <c r="N99" s="11" t="inlineStr">
         <is>
-          <t>approve(dtlFg)</t>
+          <t>reject(dtlFg)</t>
         </is>
       </c>
       <c r="O99" s="11" t="n"/>
       <c r="P99" s="11" t="n"/>
     </row>
     <row r="100">
+      <c r="B100" s="1" t="n"/>
       <c r="C100" s="11" t="n"/>
       <c r="D100" s="11" t="inlineStr">
         <is>
-          <t>bttReject</t>
+          <t>bttDisplayPaymentRecord</t>
         </is>
       </c>
       <c r="E100" s="11" t="inlineStr">
         <is>
-          <t>Reject</t>
+          <t>Display Payment Record</t>
         </is>
       </c>
       <c r="F100" s="11" t="n"/>
@@ -4072,29 +4158,29 @@
       </c>
       <c r="L100" s="11" t="inlineStr">
         <is>
-          <t>icon: images/close_button_normal.gif
-dialog: content:Are you sure to reject this cash payment?</t>
+          <t>icon: images/search_button.gif</t>
         </is>
       </c>
       <c r="M100" s="11" t="n"/>
       <c r="N100" s="11" t="inlineStr">
         <is>
-          <t>reject(dtlFg)</t>
+          <t>displayPaymentRecordFile</t>
         </is>
       </c>
       <c r="O100" s="11" t="n"/>
       <c r="P100" s="11" t="n"/>
     </row>
     <row r="101">
+      <c r="B101" s="1" t="n"/>
       <c r="C101" s="11" t="n"/>
       <c r="D101" s="11" t="inlineStr">
         <is>
-          <t>bttDisplayPaymentRecord</t>
+          <t>bttDownloadPaymentRecord</t>
         </is>
       </c>
       <c r="E101" s="11" t="inlineStr">
         <is>
-          <t>Display Payment Record</t>
+          <t>Download Payment Record</t>
         </is>
       </c>
       <c r="F101" s="11" t="n"/>
@@ -4109,28 +4195,30 @@
       </c>
       <c r="L101" s="11" t="inlineStr">
         <is>
-          <t>icon: images/search_button.gif</t>
+          <t>icon:images/download_button.gif
+type: download</t>
         </is>
       </c>
       <c r="M101" s="11" t="n"/>
       <c r="N101" s="11" t="inlineStr">
         <is>
-          <t>displayPaymentRecordFile</t>
+          <t>downloadPaymentRecordFile</t>
         </is>
       </c>
       <c r="O101" s="11" t="n"/>
       <c r="P101" s="11" t="n"/>
     </row>
     <row r="102">
+      <c r="B102" s="1" t="n"/>
       <c r="C102" s="11" t="n"/>
       <c r="D102" s="11" t="inlineStr">
         <is>
-          <t>bttDownloadPaymentRecord</t>
+          <t>bttSettle</t>
         </is>
       </c>
       <c r="E102" s="11" t="inlineStr">
         <is>
-          <t>Download Payment Record</t>
+          <t>Settle</t>
         </is>
       </c>
       <c r="F102" s="11" t="n"/>
@@ -4145,29 +4233,31 @@
       </c>
       <c r="L102" s="11" t="inlineStr">
         <is>
-          <t>icon:images/download_button.gif
-type: download</t>
+          <t>icon: images/action_button.gif
+type: uploadButton
+dialog: title:Confirm settle;continueName:Yes;content:Are you sure to settle this cash advancement?</t>
         </is>
       </c>
       <c r="M102" s="11" t="n"/>
       <c r="N102" s="11" t="inlineStr">
         <is>
-          <t>downloadPaymentRecordFile</t>
+          <t>settle(dtlFg, uploadFg)</t>
         </is>
       </c>
       <c r="O102" s="11" t="n"/>
       <c r="P102" s="11" t="n"/>
     </row>
     <row r="103">
+      <c r="B103" s="1" t="n"/>
       <c r="C103" s="11" t="n"/>
       <c r="D103" s="11" t="inlineStr">
         <is>
-          <t>bttSettle</t>
+          <t>bttRevertSettledPayment</t>
         </is>
       </c>
       <c r="E103" s="11" t="inlineStr">
         <is>
-          <t>Settle</t>
+          <t>Revert Settled Payment</t>
         </is>
       </c>
       <c r="F103" s="11" t="n"/>
@@ -4182,67 +4272,59 @@
       </c>
       <c r="L103" s="11" t="inlineStr">
         <is>
-          <t>icon: images/action_button.gif
-type: uploadButton
-dialog: title:Confirm settle;continueName:Yes;content:Are you sure to settle this cash advancement?</t>
+          <t>icon:images/cancel_button.gif
+dialog:content: Are you sure to revert this settled payment?</t>
         </is>
       </c>
       <c r="M103" s="11" t="n"/>
       <c r="N103" s="11" t="inlineStr">
         <is>
-          <t>settle(dtlFg, uploadFg)</t>
+          <t>revertSettledPayment(dtlFg)</t>
         </is>
       </c>
       <c r="O103" s="11" t="n"/>
       <c r="P103" s="11" t="n"/>
     </row>
     <row r="104">
-      <c r="C104" s="11" t="n"/>
-      <c r="D104" s="11" t="inlineStr">
-        <is>
-          <t>bttRevertSettledPayment</t>
-        </is>
-      </c>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="11" t="inlineStr">
+        <is>
+          <t>activityFg</t>
+        </is>
+      </c>
+      <c r="D104" s="11" t="n"/>
       <c r="E104" s="11" t="inlineStr">
         <is>
-          <t>Revert Settled Payment</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="F104" s="11" t="n"/>
       <c r="G104" s="11" t="n"/>
-      <c r="H104" s="11" t="n"/>
+      <c r="H104" s="11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="I104" s="11" t="n"/>
       <c r="J104" s="11" t="n"/>
-      <c r="K104" s="11" t="inlineStr">
-        <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L104" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/cancel_button.gif
-dialog:content: Are you sure to revert this settled payment?</t>
-        </is>
-      </c>
-      <c r="M104" s="11" t="n"/>
-      <c r="N104" s="11" t="inlineStr">
-        <is>
-          <t>revertSettledPayment(dtlFg)</t>
-        </is>
-      </c>
+      <c r="K104" s="11" t="n"/>
+      <c r="L104" s="11" t="n"/>
+      <c r="M104" s="11" t="inlineStr">
+        <is>
+          <t>operate_dt</t>
+        </is>
+      </c>
+      <c r="N104" s="11" t="n"/>
       <c r="O104" s="11" t="n"/>
       <c r="P104" s="11" t="n"/>
     </row>
     <row r="105">
-      <c r="C105" s="11" t="inlineStr">
-        <is>
-          <t>activityFg</t>
-        </is>
-      </c>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="11" t="n"/>
       <c r="D105" s="11" t="n"/>
       <c r="E105" s="11" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="F105" s="11" t="n"/>
@@ -4258,7 +4340,7 @@
       <c r="L105" s="11" t="n"/>
       <c r="M105" s="11" t="inlineStr">
         <is>
-          <t>operate_dt</t>
+          <t>operator.usr_nm</t>
         </is>
       </c>
       <c r="N105" s="11" t="n"/>
@@ -4266,11 +4348,12 @@
       <c r="P105" s="11" t="n"/>
     </row>
     <row r="106">
+      <c r="B106" s="1" t="n"/>
       <c r="C106" s="11" t="n"/>
       <c r="D106" s="11" t="n"/>
       <c r="E106" s="11" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="F106" s="11" t="n"/>
@@ -4286,7 +4369,7 @@
       <c r="L106" s="11" t="n"/>
       <c r="M106" s="11" t="inlineStr">
         <is>
-          <t>operator.usr_nm</t>
+          <t>sts</t>
         </is>
       </c>
       <c r="N106" s="11" t="n"/>
@@ -4294,11 +4377,12 @@
       <c r="P106" s="11" t="n"/>
     </row>
     <row r="107">
+      <c r="B107" s="1" t="n"/>
       <c r="C107" s="11" t="n"/>
       <c r="D107" s="11" t="n"/>
       <c r="E107" s="11" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F107" s="11" t="n"/>
@@ -4314,7 +4398,7 @@
       <c r="L107" s="11" t="n"/>
       <c r="M107" s="11" t="inlineStr">
         <is>
-          <t>sts</t>
+          <t>dsc</t>
         </is>
       </c>
       <c r="N107" s="11" t="n"/>
@@ -4322,248 +4406,220 @@
       <c r="P107" s="11" t="n"/>
     </row>
     <row r="108">
-      <c r="C108" s="11" t="n"/>
-      <c r="D108" s="11" t="n"/>
-      <c r="E108" s="11" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F108" s="11" t="n"/>
-      <c r="G108" s="11" t="n"/>
-      <c r="H108" s="11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I108" s="11" t="n"/>
-      <c r="J108" s="11" t="n"/>
-      <c r="K108" s="11" t="n"/>
-      <c r="L108" s="11" t="n"/>
-      <c r="M108" s="11" t="inlineStr">
-        <is>
-          <t>dsc</t>
-        </is>
-      </c>
-      <c r="N108" s="11" t="n"/>
-      <c r="O108" s="11" t="n"/>
-      <c r="P108" s="11" t="n"/>
-    </row>
-    <row r="109">
-      <c r="C109" s="5" t="inlineStr">
+      <c r="C108" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D109" s="3" t="n"/>
-      <c r="E109" s="3" t="n"/>
-      <c r="F109" s="3" t="n"/>
-      <c r="G109" s="3" t="n"/>
-      <c r="H109" s="3" t="n"/>
-      <c r="I109" s="3" t="n"/>
-      <c r="J109" s="3" t="n"/>
-      <c r="K109" s="3" t="n"/>
-      <c r="L109" s="3" t="n"/>
-      <c r="M109" s="3" t="n"/>
-      <c r="N109" s="3" t="n"/>
-      <c r="O109" s="3" t="n"/>
-      <c r="P109" s="3" t="n"/>
-    </row>
+      <c r="D108" s="3" t="n"/>
+      <c r="E108" s="3" t="n"/>
+      <c r="F108" s="3" t="n"/>
+      <c r="G108" s="3" t="n"/>
+      <c r="H108" s="3" t="n"/>
+      <c r="I108" s="3" t="n"/>
+      <c r="J108" s="3" t="n"/>
+      <c r="K108" s="3" t="n"/>
+      <c r="L108" s="3" t="n"/>
+      <c r="M108" s="3" t="n"/>
+      <c r="N108" s="3" t="n"/>
+      <c r="O108" s="3" t="n"/>
+      <c r="P108" s="3" t="n"/>
+    </row>
+    <row r="109"/>
     <row r="110"/>
     <row r="111"/>
-    <row r="112"/>
+    <row r="112">
+      <c r="A112" s="7" t="inlineStr">
+        <is>
+          <t>subScreenTable</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>Sub Screen</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>Sub Screen Name</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>Field Groups</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="113">
-      <c r="A113" s="7" t="inlineStr">
-        <is>
-          <t>subScreenTable</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>Sub Screen</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>Sub Screen Name</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
-        <is>
-          <t>Field Groups</t>
-        </is>
-      </c>
-      <c r="E113" s="3" t="inlineStr">
+      <c r="C113" s="11" t="n"/>
+      <c r="D113" s="11" t="n"/>
+      <c r="E113" s="11" t="n"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="5" t="inlineStr">
+        <is>
+          <t>End of Table</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="n"/>
+      <c r="E114" s="3" t="n"/>
+    </row>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117">
+      <c r="B117" s="1" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="inlineStr">
+        <is>
+          <t>fieldGroupLinkTable</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>Field Group Links</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>Field Group Name</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>Local Key</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>Parent Field Group Name</t>
+        </is>
+      </c>
+      <c r="F118" s="3" t="inlineStr">
+        <is>
+          <t>Parent Key</t>
+        </is>
+      </c>
+      <c r="G118" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="C114" s="11" t="n"/>
-      <c r="D114" s="11" t="n"/>
-      <c r="E114" s="11" t="n"/>
-    </row>
-    <row r="115">
-      <c r="C115" s="5" t="inlineStr">
+    <row r="119">
+      <c r="C119" s="11" t="n"/>
+      <c r="D119" s="11" t="n"/>
+      <c r="E119" s="11" t="n"/>
+      <c r="F119" s="11" t="n"/>
+      <c r="G119" s="11" t="n"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D115" s="3" t="n"/>
-      <c r="E115" s="3" t="n"/>
-    </row>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118">
-      <c r="B118" s="1" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="7" t="inlineStr">
-        <is>
-          <t>fieldGroupLinkTable</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="inlineStr">
-        <is>
-          <t>Field Group Links</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
+      <c r="D120" s="3" t="n"/>
+      <c r="E120" s="3" t="n"/>
+      <c r="F120" s="3" t="n"/>
+      <c r="G120" s="3" t="n"/>
+    </row>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123">
+      <c r="B123" s="16" t="inlineStr">
+        <is>
+          <t>Table Header and Footer for Field Groups</t>
+        </is>
+      </c>
+      <c r="E123" s="8" t="inlineStr">
+        <is>
+          <t>add as many levels as needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="12" t="inlineStr">
+        <is>
+          <t>headerFooterTable</t>
+        </is>
+      </c>
+      <c r="B124" s="13" t="n"/>
+      <c r="C124" s="17" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
-        <is>
-          <t>Local Key</t>
-        </is>
-      </c>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t>Parent Field Group Name</t>
-        </is>
-      </c>
-      <c r="F119" s="3" t="inlineStr">
-        <is>
-          <t>Parent Key</t>
-        </is>
-      </c>
-      <c r="G119" s="3" t="inlineStr">
+      <c r="D124" s="17" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="E124" s="17" t="inlineStr">
+        <is>
+          <t>Header Level 1</t>
+        </is>
+      </c>
+      <c r="F124" s="17" t="inlineStr">
+        <is>
+          <t>Header Level 2</t>
+        </is>
+      </c>
+      <c r="G124" s="17" t="inlineStr">
+        <is>
+          <t>Header Level 3</t>
+        </is>
+      </c>
+      <c r="H124" s="17" t="inlineStr">
+        <is>
+          <t>Footer</t>
+        </is>
+      </c>
+      <c r="I124" s="17" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="120">
-      <c r="C120" s="11" t="n"/>
-      <c r="D120" s="11" t="n"/>
-      <c r="E120" s="11" t="n"/>
-      <c r="F120" s="11" t="n"/>
-      <c r="G120" s="11" t="n"/>
-    </row>
-    <row r="121">
-      <c r="C121" s="5" t="inlineStr">
+      <c r="K124" s="8" t="inlineStr">
+        <is>
+          <t>optional for table field groups only</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" s="11" t="n"/>
+      <c r="D125" s="11" t="n"/>
+      <c r="E125" s="11" t="n"/>
+      <c r="F125" s="11" t="n"/>
+      <c r="G125" s="11" t="n"/>
+      <c r="H125" s="11" t="n"/>
+      <c r="I125" s="11" t="n"/>
+      <c r="K125" s="8" t="inlineStr">
+        <is>
+          <t>this is only an example, does not match the above definition</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D121" s="3" t="n"/>
-      <c r="E121" s="3" t="n"/>
-      <c r="F121" s="3" t="n"/>
-      <c r="G121" s="3" t="n"/>
-    </row>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124">
-      <c r="B124" s="16" t="inlineStr">
-        <is>
-          <t>Table Header and Footer for Field Groups</t>
-        </is>
-      </c>
-      <c r="E124" s="8" t="inlineStr">
-        <is>
-          <t>add as many levels as needed</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="12" t="inlineStr">
-        <is>
-          <t>headerFooterTable</t>
-        </is>
-      </c>
-      <c r="B125" s="13" t="n"/>
-      <c r="C125" s="17" t="inlineStr">
-        <is>
-          <t>Field Group Name</t>
-        </is>
-      </c>
-      <c r="D125" s="17" t="inlineStr">
-        <is>
-          <t>Field</t>
-        </is>
-      </c>
-      <c r="E125" s="17" t="inlineStr">
-        <is>
-          <t>Header Level 1</t>
-        </is>
-      </c>
-      <c r="F125" s="17" t="inlineStr">
-        <is>
-          <t>Header Level 2</t>
-        </is>
-      </c>
-      <c r="G125" s="17" t="inlineStr">
-        <is>
-          <t>Header Level 3</t>
-        </is>
-      </c>
-      <c r="H125" s="17" t="inlineStr">
-        <is>
-          <t>Footer</t>
-        </is>
-      </c>
-      <c r="I125" s="17" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="K125" s="8" t="inlineStr">
-        <is>
-          <t>optional for table field groups only</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="C126" s="11" t="n"/>
-      <c r="D126" s="11" t="n"/>
-      <c r="E126" s="11" t="n"/>
-      <c r="F126" s="11" t="n"/>
-      <c r="G126" s="11" t="n"/>
-      <c r="H126" s="11" t="n"/>
-      <c r="I126" s="11" t="n"/>
-      <c r="K126" s="8" t="inlineStr">
-        <is>
-          <t>this is only an example, does not match the above definition</t>
-        </is>
-      </c>
+      <c r="D126" s="3" t="n"/>
+      <c r="E126" s="3" t="n"/>
+      <c r="F126" s="3" t="n"/>
+      <c r="G126" s="3" t="n"/>
+      <c r="H126" s="3" t="n"/>
+      <c r="I126" s="3" t="n"/>
     </row>
     <row r="127">
-      <c r="C127" s="5" t="inlineStr">
-        <is>
-          <t>End of Table</t>
-        </is>
-      </c>
-      <c r="D127" s="3" t="n"/>
-      <c r="E127" s="3" t="n"/>
-      <c r="F127" s="3" t="n"/>
-      <c r="G127" s="3" t="n"/>
-      <c r="H127" s="3" t="n"/>
-      <c r="I127" s="3" t="n"/>
-    </row>
-    <row r="128">
-      <c r="H128" s="8" t="n"/>
+      <c r="H127" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
